--- a/JOGOS/2023-07-29_Back_Draw.xlsx
+++ b/JOGOS/2023-07-29_Back_Draw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -46,25 +46,55 @@
     <t>FT_Odd_BTTS_Yes</t>
   </si>
   <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>12:45</t>
-  </si>
-  <si>
-    <t>AUSTRIA - 2. LIGA</t>
-  </si>
-  <si>
-    <t>Lafnitz</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
-    <t>Kapfenberg</t>
-  </si>
-  <si>
-    <t>Dornbirn</t>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>SWEDEN - SUPERETTAN</t>
+  </si>
+  <si>
+    <t>DENMARK - 1ST DIVISION</t>
+  </si>
+  <si>
+    <t>AUSTRIA - BUNDESLIGA</t>
+  </si>
+  <si>
+    <t>SWITZERLAND - SUPER LEAGUE</t>
+  </si>
+  <si>
+    <t>Ostersund</t>
+  </si>
+  <si>
+    <t>Kolding IF</t>
+  </si>
+  <si>
+    <t>Hartberg</t>
+  </si>
+  <si>
+    <t>Servette</t>
+  </si>
+  <si>
+    <t>Sundsvall</t>
+  </si>
+  <si>
+    <t>Hillerod</t>
+  </si>
+  <si>
+    <t>A. Lustenau</t>
+  </si>
+  <si>
+    <t>Zurich</t>
   </si>
 </sst>
 </file>
@@ -422,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +498,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -477,34 +507,34 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H2">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
-        <v>4.38</v>
+        <v>4.2</v>
       </c>
       <c r="J2">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="K2">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="L2">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="M2">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -515,37 +545,119 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>1.65</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1.8</v>
+      </c>
+      <c r="K3">
+        <v>1.8</v>
+      </c>
+      <c r="L3">
+        <v>1.8</v>
+      </c>
+      <c r="M3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1.85</v>
+      </c>
+      <c r="H4">
+        <v>3.75</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>1.7</v>
+      </c>
+      <c r="K4">
+        <v>1.62</v>
+      </c>
+      <c r="L4">
+        <v>1.7</v>
+      </c>
+      <c r="M4">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>1.68</v>
-      </c>
-      <c r="H3">
-        <v>4.3</v>
-      </c>
-      <c r="I3">
-        <v>4.38</v>
-      </c>
-      <c r="J3">
-        <v>1.43</v>
-      </c>
-      <c r="K3">
-        <v>1.49</v>
-      </c>
-      <c r="L3">
-        <v>1.43</v>
-      </c>
-      <c r="M3">
-        <v>1.49</v>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>1.85</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3.8</v>
+      </c>
+      <c r="J5">
+        <v>1.67</v>
+      </c>
+      <c r="K5">
+        <v>1.62</v>
+      </c>
+      <c r="L5">
+        <v>1.67</v>
+      </c>
+      <c r="M5">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
